--- a/data-raw/osds.xlsx
+++ b/data-raw/osds.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Dropbox/HO_database/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\assignR\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176BB7C-F102-DD43-A290-4B4FF3001F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="28400" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="28400" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="osds" sheetId="1" r:id="rId1"/>
@@ -31,36 +30,12 @@
     <t>High_material</t>
   </si>
   <si>
-    <t>High_d18O</t>
-  </si>
-  <si>
-    <t>High_d18O_sd</t>
-  </si>
-  <si>
-    <t>High_d18O_n</t>
-  </si>
-  <si>
-    <t>High_d18O_se</t>
-  </si>
-  <si>
     <t>Low_ID</t>
   </si>
   <si>
     <t>Low_material</t>
   </si>
   <si>
-    <t>Low_d18O</t>
-  </si>
-  <si>
-    <t>Low_d18O_sd</t>
-  </si>
-  <si>
-    <t>Low_d18O_n</t>
-  </si>
-  <si>
-    <t>Low_d18O_se</t>
-  </si>
-  <si>
     <t>Ref_scale</t>
   </si>
   <si>
@@ -533,12 +508,36 @@
   </si>
   <si>
     <t>Correspondence to H scales</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>High_sd</t>
+  </si>
+  <si>
+    <t>High_n</t>
+  </si>
+  <si>
+    <t>High_se</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Low_sd</t>
+  </si>
+  <si>
+    <t>Low_n</t>
+  </si>
+  <si>
+    <t>Low_se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -1092,49 +1091,49 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="42" builtinId="8"/>
-    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,18 +1410,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="14.83203125" style="2"/>
+    <col min="1" max="16384" width="14.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1436,63 +1435,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>5.59</v>
@@ -1501,10 +1500,10 @@
         <v>0.24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J2" s="3">
         <v>5.38</v>
@@ -1513,30 +1512,30 @@
         <v>0.03</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>5.31</v>
@@ -1551,10 +1550,10 @@
         <v>0.11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J3" s="3">
         <v>5.24</v>
@@ -1569,30 +1568,30 @@
         <v>0.01</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1">
       <c r="A4" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>12.82</v>
@@ -1607,10 +1606,10 @@
         <v>0.08</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J4" s="3">
         <v>5.24</v>
@@ -1625,31 +1624,31 @@
         <v>0.01</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>20.3</v>
@@ -1658,10 +1657,10 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <v>3.8</v>
@@ -1670,31 +1669,31 @@
         <v>0.3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>21.46</v>
@@ -1703,10 +1702,10 @@
         <v>0.03</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <v>2.5</v>
@@ -1715,30 +1714,30 @@
         <v>0.11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>21.21</v>
@@ -1753,10 +1752,10 @@
         <v>0.09</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2">
         <v>2.39</v>
@@ -1771,68 +1770,68 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>14.85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2">
         <v>5.67</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>13.22</v>
@@ -1847,10 +1846,10 @@
         <v>0.09</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
         <v>3.49</v>
@@ -1865,30 +1864,30 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>14.67</v>
@@ -1903,10 +1902,10 @@
         <v>0.04</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2">
         <v>5.35</v>
@@ -1921,30 +1920,30 @@
         <v>0.03</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>25.09</v>
@@ -1959,10 +1958,10 @@
         <v>0.04</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J11" s="2">
         <v>6.02</v>
@@ -1977,30 +1976,30 @@
         <v>0.03</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>22.82</v>
@@ -2009,10 +2008,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2">
         <v>4.66</v>
@@ -2021,33 +2020,33 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2">
         <v>23.45</v>
@@ -2056,10 +2055,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2">
         <v>4.93</v>
@@ -2068,33 +2067,33 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>12.26</v>
@@ -2103,10 +2102,10 @@
         <v>0.05</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2">
         <v>5.95</v>
@@ -2115,30 +2114,30 @@
         <v>0.11</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>12.22</v>
@@ -2153,10 +2152,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2">
         <v>5.97</v>
@@ -2171,30 +2170,30 @@
         <v>0.05</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>11.86</v>
@@ -2209,10 +2208,10 @@
         <v>0.03</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2">
         <v>5.49</v>
@@ -2227,31 +2226,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>14.11</v>
@@ -2260,10 +2259,10 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J17" s="2">
         <v>8.56</v>
@@ -2272,30 +2271,30 @@
         <v>0.1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>14.4</v>
@@ -2304,10 +2303,10 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J18" s="2">
         <v>8.85</v>
@@ -2316,30 +2315,30 @@
         <v>0.15</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>15.96</v>
@@ -2354,10 +2353,10 @@
         <v>0.06</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3">
         <v>9.94</v>
@@ -2372,30 +2371,30 @@
         <v>0.05</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>14.11</v>
@@ -2410,10 +2409,10 @@
         <v>0.04</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J20" s="2">
         <v>8.56</v>
@@ -2428,30 +2427,30 @@
         <v>0.03</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3">
         <v>23.3</v>
@@ -2460,10 +2459,10 @@
         <v>0.3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J21" s="3">
         <v>71.400000000000006</v>
@@ -2472,27 +2471,27 @@
         <v>0.5</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3">
         <v>23.14</v>
@@ -2501,10 +2500,10 @@
         <v>0.19</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J22" s="3">
         <v>71.28</v>
@@ -2513,30 +2512,30 @@
         <v>0.36</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D23" s="3">
         <v>23.02</v>
@@ -2545,36 +2544,36 @@
         <v>0.13</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J23" s="3">
         <v>71.260000000000005</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3">
         <v>23.14</v>
@@ -2583,36 +2582,36 @@
         <v>0.17</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J24" s="3">
         <v>71.239999999999995</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
         <v>23.03</v>
@@ -2621,36 +2620,36 @@
         <v>0.08</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J25" s="3">
         <v>71.17</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="3" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3">
         <v>22.95</v>
@@ -2659,36 +2658,36 @@
         <v>0.53</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J26" s="3">
         <v>71.010000000000005</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3">
         <v>23.42</v>
@@ -2697,36 +2696,36 @@
         <v>0.65</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J27" s="3">
         <v>72.3</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="3" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3">
         <v>23.48</v>
@@ -2735,60 +2734,60 @@
         <v>0.11</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J28" s="3">
         <v>71.31</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="4" customFormat="1">
       <c r="A29" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J29" s="4">
         <v>-55.5</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O29" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/osds.xlsx
+++ b/data-raw/osds.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\assignR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DA1E9-300D-CC42-A99B-788C04BA682C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="28400" windowHeight="12520"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="28400" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="osds" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
   <si>
     <t>Scale</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Qi et al. 2011 Rapid Comm Mass Spec</t>
   </si>
   <si>
-    <t>This study</t>
-  </si>
-  <si>
     <t>Bowhead whale baleen</t>
   </si>
   <si>
@@ -69,33 +67,18 @@
     <t xml:space="preserve">Coplen 2017 USGS Rep </t>
   </si>
   <si>
-    <t>Not comp to any SA scales</t>
-  </si>
-  <si>
-    <t>Not comp to any SA scales for H</t>
-  </si>
-  <si>
     <t>Florida horse hair</t>
   </si>
   <si>
     <t>Utah horse hair</t>
   </si>
   <si>
-    <t>Chesson 2012 IsoForensics Rep</t>
-  </si>
-  <si>
     <t>Bowen et al. 2005 Rapid Comm Mass Spec</t>
   </si>
   <si>
     <t xml:space="preserve">Coplen and Qi 2012 Forensic Sci Int </t>
   </si>
   <si>
-    <t>Chesson 2012 IsoForensics Rep; Howa unpubl data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study </t>
-  </si>
-  <si>
     <t>Oryx antelope horn from Ethiopia</t>
   </si>
   <si>
@@ -120,9 +103,6 @@
     <t>TCEA; average of individual measurement over 4 d</t>
   </si>
   <si>
-    <t>Not comp to any US scales for H</t>
-  </si>
-  <si>
     <t>KHS_7</t>
   </si>
   <si>
@@ -360,12 +340,6 @@
     <t xml:space="preserve">cal against a ref water and two barium sulfates using a variety of HTC techniques </t>
   </si>
   <si>
-    <t xml:space="preserve">Not comp to any OldSA for H; also, CHS &lt; CFS for H; CHS &gt; CFS for O </t>
-  </si>
-  <si>
-    <t>Not comp to any CAN scales for H; also, CAL-SAL &lt; CAL-CAN for H; CAL-CAN &lt; CAL-SAL for O</t>
-  </si>
-  <si>
     <t>Citation_val</t>
   </si>
   <si>
@@ -456,39 +430,6 @@
     <t>VSMOW_O</t>
   </si>
   <si>
-    <t>Comp to SA_H_7</t>
-  </si>
-  <si>
-    <t>Comp to OldUT_H_1</t>
-  </si>
-  <si>
-    <t>Comp to OldUT_H_2</t>
-  </si>
-  <si>
-    <t>Comp to OldUT_H_4</t>
-  </si>
-  <si>
-    <t>Comp to UT_H_2</t>
-  </si>
-  <si>
-    <t>Comp to UT_H_4</t>
-  </si>
-  <si>
-    <t>Comp to UT_H_5</t>
-  </si>
-  <si>
-    <t>Comp to CAN_H_5</t>
-  </si>
-  <si>
-    <t>Comp to US_H_1 and US_H_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp to US_H_5  </t>
-  </si>
-  <si>
-    <t>Comp to US_H_7</t>
-  </si>
-  <si>
     <t>comp eqib against US_O_1</t>
   </si>
   <si>
@@ -498,18 +439,12 @@
     <t>comp eqib against UT_O_2</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>UT_O_4 data have no associated uncertainty therefore UT_O_4-IAEA_O_1 comparison is not allowed</t>
   </si>
   <si>
     <t>UT_O_5 data have no associated uncertainty therefore UT_O_5-SA_O_6 comparison is not allowed</t>
   </si>
   <si>
-    <t>Correspondence to H scales</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -532,12 +467,24 @@
   </si>
   <si>
     <t>Low_se</t>
+  </si>
+  <si>
+    <t>O_scale_comments</t>
+  </si>
+  <si>
+    <t>Magozzi et al. in prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magozzi et al. in prep </t>
+  </si>
+  <si>
+    <t>Chesson &amp; Howa unpubl data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -1091,49 +1038,49 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="42" builtinId="8"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1410,18 +1357,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="topRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="14.81640625" style="2"/>
+    <col min="1" max="16384" width="14.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1435,16 +1382,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -1453,42 +1400,39 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -1500,7 +1444,7 @@
         <v>0.24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -1512,27 +1456,24 @@
         <v>0.03</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1550,7 +1491,7 @@
         <v>0.11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>8</v>
@@ -1568,30 +1509,27 @@
         <v>0.01</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>12.82</v>
@@ -1606,7 +1544,7 @@
         <v>0.08</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>8</v>
@@ -1624,31 +1562,28 @@
         <v>0.01</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>20.3</v>
@@ -1657,10 +1592,10 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="2">
         <v>3.8</v>
@@ -1669,31 +1604,28 @@
         <v>0.3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>21.46</v>
@@ -1702,10 +1634,10 @@
         <v>0.03</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="2">
         <v>2.5</v>
@@ -1714,30 +1646,27 @@
         <v>0.11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>21.21</v>
@@ -1752,10 +1681,10 @@
         <v>0.09</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2">
         <v>2.39</v>
@@ -1770,68 +1699,62 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>14.85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2">
         <v>5.67</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>13.22</v>
@@ -1846,10 +1769,10 @@
         <v>0.09</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2">
         <v>3.49</v>
@@ -1864,30 +1787,27 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>14.67</v>
@@ -1902,10 +1822,10 @@
         <v>0.04</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2">
         <v>5.35</v>
@@ -1920,30 +1840,28 @@
         <v>0.03</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>148</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>25.09</v>
@@ -1958,10 +1876,10 @@
         <v>0.04</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
         <v>6.02</v>
@@ -1976,30 +1894,28 @@
         <v>0.03</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>22.82</v>
@@ -2008,10 +1924,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>4.66</v>
@@ -2020,33 +1936,31 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>150</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>23.45</v>
@@ -2055,10 +1969,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2">
         <v>4.93</v>
@@ -2067,33 +1981,31 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>151</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2">
         <v>12.26</v>
@@ -2102,10 +2014,10 @@
         <v>0.05</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2">
         <v>5.95</v>
@@ -2114,30 +2026,27 @@
         <v>0.11</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
         <v>12.22</v>
@@ -2152,10 +2061,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2">
         <v>5.97</v>
@@ -2170,30 +2079,27 @@
         <v>0.05</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <v>11.86</v>
@@ -2208,10 +2114,10 @@
         <v>0.03</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2">
         <v>5.49</v>
@@ -2226,31 +2132,28 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="R16" s="7"/>
-      <c r="S16" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>14.11</v>
@@ -2259,10 +2162,10 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J17" s="2">
         <v>8.56</v>
@@ -2271,30 +2174,27 @@
         <v>0.1</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>14.4</v>
@@ -2303,10 +2203,10 @@
         <v>0.1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J18" s="2">
         <v>8.85</v>
@@ -2315,30 +2215,27 @@
         <v>0.15</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="3" customFormat="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
         <v>15.96</v>
@@ -2353,10 +2250,10 @@
         <v>0.06</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J19" s="3">
         <v>9.94</v>
@@ -2371,30 +2268,27 @@
         <v>0.05</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2">
         <v>14.11</v>
@@ -2409,10 +2303,10 @@
         <v>0.04</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2">
         <v>8.56</v>
@@ -2427,30 +2321,27 @@
         <v>0.03</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="3" customFormat="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="3" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3">
         <v>23.3</v>
@@ -2459,10 +2350,10 @@
         <v>0.3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J21" s="3">
         <v>71.400000000000006</v>
@@ -2471,27 +2362,27 @@
         <v>0.5</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="3" customFormat="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="3" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3">
         <v>23.14</v>
@@ -2500,10 +2391,10 @@
         <v>0.19</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J22" s="3">
         <v>71.28</v>
@@ -2512,30 +2403,30 @@
         <v>0.36</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="3" customFormat="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3">
         <v>23.02</v>
@@ -2544,36 +2435,36 @@
         <v>0.13</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J23" s="3">
         <v>71.260000000000005</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="3" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D24" s="3">
         <v>23.14</v>
@@ -2582,36 +2473,36 @@
         <v>0.17</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J24" s="3">
         <v>71.239999999999995</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="3" customFormat="1">
+    </row>
+    <row r="25" spans="1:18" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3">
         <v>23.03</v>
@@ -2620,36 +2511,36 @@
         <v>0.08</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J25" s="3">
         <v>71.17</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="3" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="3" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3">
         <v>22.95</v>
@@ -2658,36 +2549,36 @@
         <v>0.53</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J26" s="3">
         <v>71.010000000000005</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="3" customFormat="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="3" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3">
         <v>23.42</v>
@@ -2696,36 +2587,36 @@
         <v>0.65</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J27" s="3">
         <v>72.3</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q27" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="3" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" s="3" customFormat="1">
-      <c r="A28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3">
         <v>23.48</v>
@@ -2734,60 +2625,60 @@
         <v>0.11</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J28" s="3">
         <v>71.31</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="4" customFormat="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="4" customFormat="1">
       <c r="A29" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J29" s="4">
         <v>-55.5</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O29" r:id="rId1"/>
+    <hyperlink ref="O29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
